--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
@@ -1135,22 +1135,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
@@ -1204,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1308,22 +1308,22 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U6" t="n">
         <v>5.5</v>
@@ -1395,10 +1395,10 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
@@ -1743,16 +1743,16 @@
         <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>9</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1761,22 +1761,22 @@
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="T9" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="U9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
         <v>1.44</v>
@@ -1785,13 +1785,13 @@
         <v>2.63</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
         <v>5.5</v>
@@ -1803,19 +1803,19 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>101</v>
@@ -1824,7 +1824,7 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -1842,10 +1842,10 @@
         <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="10">
@@ -2100,28 +2100,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2138,16 +2138,16 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="V12" t="n">
         <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y12" t="n">
         <v>1.87</v>
@@ -2156,25 +2156,25 @@
         <v>1.83</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
         <v>40</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AH12" t="n">
         <v>5.5</v>
@@ -2189,19 +2189,19 @@
         <v>700</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
         <v>35</v>
@@ -2600,22 +2600,22 @@
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
         <v>2.38</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2624,30 +2624,30 @@
         <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA16" t="n">
         <v>5.5</v>
@@ -2665,10 +2665,10 @@
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
@@ -2699,10 +2699,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17">
@@ -2740,7 +2740,7 @@
         <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
         <v>2.2</v>
@@ -2752,7 +2752,7 @@
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -3044,7 +3044,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3179,7 +3179,7 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3208,16 +3208,16 @@
         <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
         <v>8.5</v>
@@ -3253,7 +3253,7 @@
         <v>201</v>
       </c>
       <c r="AL20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM20" t="n">
         <v>17</v>
@@ -3268,7 +3268,7 @@
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3355,10 +3355,10 @@
         <v>2.63</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA21" t="n">
         <v>7</v>
@@ -3446,13 +3446,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
         <v>2.88</v>
@@ -3461,7 +3461,7 @@
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3496,7 +3496,7 @@
         <v>3.25</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z22" t="n">
         <v>2.2</v>
@@ -3508,7 +3508,7 @@
         <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
         <v>21</v>
@@ -3538,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>11</v>
@@ -3550,7 +3550,7 @@
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3873,28 +3873,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3903,18 +3903,18 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
         <v>1.44</v>
@@ -3929,7 +3929,7 @@
         <v>1.91</v>
       </c>
       <c r="AA25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB25" t="n">
         <v>13</v>
@@ -3938,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -3947,13 +3947,13 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>51</v>
@@ -3965,7 +3965,7 @@
         <v>8.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>10</v>
@@ -3977,7 +3977,7 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -773,10 +773,10 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
@@ -785,13 +785,13 @@
         <v>351</v>
       </c>
       <c r="AL2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1174,7 +1174,7 @@
         <v>5.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="U5" t="n">
         <v>6.5</v>
@@ -1246,10 +1246,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="6">
@@ -1749,10 +1749,10 @@
         <v>9</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1767,10 +1767,10 @@
         <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U9" t="n">
         <v>3.75</v>
@@ -1842,10 +1842,10 @@
         <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="10">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1904,10 +1904,10 @@
         <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1940,19 +1940,19 @@
         <v>1.67</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1973,28 +1973,28 @@
         <v>1250</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="11">
@@ -2028,43 +2028,113 @@
           <t>El Ismaily</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.38</v>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>55</v>
+      </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
     </row>
@@ -2100,16 +2170,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="I12" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
         <v>1.93</v>
@@ -2118,30 +2188,30 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2150,55 +2220,55 @@
         <v>2.42</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
         <v>50</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL12" t="n">
         <v>6.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AN12" t="n">
         <v>9.25</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP12" t="n">
         <v>22</v>
@@ -2240,43 +2310,113 @@
           <t>National Bank Egypt</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.42</v>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>65</v>
+      </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
     </row>
@@ -2453,10 +2593,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -2618,16 +2758,16 @@
         <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2737,7 +2877,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
@@ -2752,45 +2892,45 @@
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA17" t="n">
         <v>8</v>
@@ -2811,13 +2951,13 @@
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>67</v>
@@ -2826,13 +2966,13 @@
         <v>501</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM17" t="n">
         <v>9.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO17" t="n">
         <v>21</v>
@@ -2841,13 +2981,13 @@
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="18">
@@ -3023,13 +3163,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -3038,13 +3178,13 @@
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3053,10 +3193,10 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3088,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3121,10 +3261,10 @@
         <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
         <v>34</v>
@@ -3605,10 +3745,10 @@
         <v>4.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3617,10 +3757,10 @@
         <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3694,10 +3834,10 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="24">
@@ -3873,48 +4013,48 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
         <v>3.4</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.25</v>
-      </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W25" t="n">
         <v>1.44</v>
@@ -3923,10 +4063,10 @@
         <v>2.63</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA25" t="n">
         <v>8.5</v>
@@ -3935,40 +4075,40 @@
         <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
         <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
         <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
@@ -3977,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J2" t="n">
         <v>6.5</v>
@@ -707,7 +707,7 @@
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -773,13 +773,13 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
         <v>351</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN2" t="n">
         <v>9</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
@@ -939,10 +939,10 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP3" t="n">
         <v>26</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1228,13 +1228,13 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
         <v>51</v>
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1332,28 +1332,28 @@
         <v>1.14</v>
       </c>
       <c r="W6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z6" t="n">
         <v>1.57</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.62</v>
       </c>
       <c r="AA6" t="n">
         <v>5.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1362,7 +1362,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1377,10 +1377,10 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1746,37 +1746,37 @@
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
         <v>9</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="U9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
         <v>1.44</v>
@@ -1818,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -1842,10 +1842,10 @@
         <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="10">
@@ -2029,28 +2029,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="I11" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N11" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.62</v>
@@ -2073,28 +2073,28 @@
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z11" t="n">
         <v>1.62</v>
-      </c>
-      <c r="X11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.6</v>
       </c>
       <c r="AA11" t="n">
         <v>6.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
         <v>35</v>
@@ -2103,37 +2103,37 @@
         <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AM11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
         <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP11" t="n">
         <v>32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2170,45 +2170,45 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
         <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>1.93</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
@@ -2220,34 +2220,34 @@
         <v>2.42</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Z12" t="n">
         <v>1.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AB12" t="n">
         <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH12" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>5.4</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2262,7 +2262,7 @@
         <v>6.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AN12" t="n">
         <v>9.25</v>
@@ -2271,10 +2271,10 @@
         <v>26</v>
       </c>
       <c r="AP12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2311,72 +2311,72 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="K13" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="L13" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X13" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC13" t="n">
         <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2385,13 +2385,13 @@
         <v>50</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
         <v>150</v>
@@ -2400,22 +2400,22 @@
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>70</v>
       </c>
       <c r="AP13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ13" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2452,19 +2452,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="I14" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
         <v>9.5</v>
@@ -2473,19 +2473,19 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2496,40 +2496,40 @@
         <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA14" t="n">
         <v>5.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE14" t="n">
         <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>32</v>
@@ -2541,10 +2541,10 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
         <v>37</v>
@@ -2737,16 +2737,16 @@
         <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
         <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
@@ -2772,10 +2772,10 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
         <v>1.5</v>
@@ -2784,56 +2784,58 @@
         <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA16" t="n">
         <v>5.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK16" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>501</v>
+      </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
@@ -2895,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -3163,16 +3165,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3213,19 +3215,19 @@
         <v>2.63</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA19" t="n">
         <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
         <v>23</v>
@@ -3249,7 +3251,7 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL19" t="n">
         <v>8.5</v>
@@ -3258,7 +3260,7 @@
         <v>13</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>29</v>
@@ -3334,10 +3336,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3592,10 +3594,10 @@
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>2.25</v>
@@ -3630,10 +3632,10 @@
         <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
         <v>1.62</v>
@@ -3651,7 +3653,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -3739,16 +3741,16 @@
         <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3760,7 +3762,7 @@
         <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3777,13 +3779,13 @@
         <v>2.38</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB23" t="n">
         <v>8</v>
@@ -3798,7 +3800,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
         <v>7</v>
@@ -3807,10 +3809,10 @@
         <v>6.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="n">
         <v>900</v>
@@ -3872,28 +3874,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.2</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.29</v>
@@ -3902,10 +3904,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -3916,10 +3918,10 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y24" t="n">
         <v>1.83</v>
@@ -3931,13 +3933,13 @@
         <v>7</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
         <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
@@ -3946,10 +3948,10 @@
         <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4031,10 +4033,10 @@
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
@@ -4117,7 +4119,7 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4172,10 +4174,10 @@
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -891,25 +891,25 @@
         <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -924,28 +924,28 @@
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>2.05</v>
@@ -1010,10 +1010,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>51</v>
@@ -1451,10 +1451,10 @@
         <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1612,10 +1612,10 @@
         <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
         <v>4.4</v>
@@ -1675,10 +1675,10 @@
         <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
         <v>19</v>
@@ -1731,28 +1731,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1761,16 +1761,16 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U9" t="n">
         <v>4</v>
@@ -1785,10 +1785,10 @@
         <v>2.63</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
@@ -1800,7 +1800,7 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -1809,16 +1809,16 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>8</v>
       </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -1833,7 +1833,7 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP9" t="n">
         <v>81</v>
@@ -1842,10 +1842,10 @@
         <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="10">
@@ -1880,28 +1880,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -1916,7 +1916,7 @@
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>1.24</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="11">
@@ -2029,28 +2029,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H11" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.16</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="O11" t="n">
         <v>1.62</v>
@@ -2073,43 +2073,43 @@
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X11" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Z11" t="n">
         <v>1.62</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AH11" t="n">
         <v>5.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>120</v>
@@ -2118,13 +2118,13 @@
         <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO11" t="n">
         <v>37</v>
@@ -2133,7 +2133,7 @@
         <v>32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2170,37 +2170,37 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>1.93</v>
       </c>
       <c r="L12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
         <v>1.55</v>
@@ -2208,7 +2208,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
@@ -2220,31 +2220,31 @@
         <v>2.42</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Z12" t="n">
         <v>1.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="n">
         <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AH12" t="n">
         <v>5.5</v>
@@ -2259,16 +2259,16 @@
         <v>800</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AM12" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2311,28 +2311,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="J13" t="n">
         <v>2.87</v>
       </c>
       <c r="K13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="M13" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N13" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.62</v>
@@ -2341,7 +2341,7 @@
         <v>2.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R13" t="n">
         <v>1.38</v>
@@ -2349,13 +2349,13 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
         <v>2.18</v>
@@ -2367,31 +2367,31 @@
         <v>1.57</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
         <v>50</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>150</v>
@@ -2400,16 +2400,16 @@
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AM13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP13" t="n">
         <v>55</v>
@@ -2452,87 +2452,87 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="H14" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L14" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AE14" t="n">
         <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>200</v>
@@ -2541,22 +2541,22 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AP14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AQ14" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2903,24 +2903,24 @@
         <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W17" t="n">
         <v>1.53</v>
@@ -2986,10 +2986,10 @@
         <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="18">
@@ -3110,7 +3110,7 @@
         <v>51</v>
       </c>
       <c r="AK18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL18" t="n">
         <v>13</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -3174,19 +3174,19 @@
         <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3195,10 +3195,10 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3215,10 +3215,10 @@
         <v>2.63</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA19" t="n">
         <v>8</v>
@@ -3239,7 +3239,7 @@
         <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
@@ -3251,7 +3251,7 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL19" t="n">
         <v>8.5</v>
@@ -3336,10 +3336,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3471,16 +3471,16 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -3603,7 +3603,7 @@
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3632,10 +3632,10 @@
         <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y22" t="n">
         <v>1.62</v>
@@ -3644,10 +3644,10 @@
         <v>2.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
@@ -3656,7 +3656,7 @@
         <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
@@ -3683,7 +3683,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
         <v>29</v>
@@ -3892,10 +3892,10 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
         <v>1.29</v>
@@ -4033,10 +4033,10 @@
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -891,28 +891,28 @@
         <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>5.5</v>
@@ -924,25 +924,25 @@
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1016,22 +1016,22 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
         <v>1.57</v>
@@ -1097,10 +1097,10 @@
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1320,10 +1320,10 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U6" t="n">
         <v>5.5</v>
@@ -1395,10 +1395,10 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="7">
@@ -1448,7 +1448,7 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1508,7 +1508,7 @@
         <v>51</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>8</v>
@@ -1529,7 +1529,7 @@
         <v>5.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN7" t="n">
         <v>9</v>
@@ -1639,7 +1639,7 @@
         <v>2.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA8" t="n">
         <v>4.75</v>
@@ -1731,46 +1731,46 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="U9" t="n">
         <v>4</v>
@@ -1779,16 +1779,16 @@
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y9" t="n">
         <v>2.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
@@ -1800,7 +1800,7 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -1824,28 +1824,28 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>101</v>
       </c>
       <c r="AP9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ9" t="n">
         <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="10">
@@ -1910,16 +1910,16 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U10" t="n">
         <v>5</v>
@@ -1937,7 +1937,7 @@
         <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11">
@@ -2170,111 +2170,111 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>900</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>40</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>37</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2311,111 +2311,111 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L13" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X13" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AB13" t="n">
         <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE13" t="n">
         <v>22</v>
       </c>
-      <c r="AE13" t="n">
-        <v>24</v>
-      </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
         <v>5.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2452,13 +2452,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
         <v>1.78</v>
@@ -2541,7 +2541,7 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM14" t="n">
         <v>70</v>
@@ -2734,13 +2734,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
         <v>2.3</v>
@@ -2778,10 +2778,10 @@
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y16" t="n">
         <v>2.1</v>
@@ -2814,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>67</v>
@@ -2826,16 +2826,16 @@
         <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP16" t="n">
         <v>51</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>41</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
@@ -2897,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -2909,10 +2909,10 @@
         <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2986,10 +2986,10 @@
         <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="18">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -3180,7 +3180,7 @@
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3239,7 +3239,7 @@
         <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
@@ -3324,22 +3324,22 @@
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3471,16 +3471,16 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -3603,7 +3603,7 @@
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3644,10 +3644,10 @@
         <v>2.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
@@ -3656,7 +3656,7 @@
         <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
@@ -3683,7 +3683,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>29</v>
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
@@ -3753,24 +3753,24 @@
         <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
         <v>1.53</v>
@@ -3794,7 +3794,7 @@
         <v>9.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
@@ -3818,16 +3818,16 @@
         <v>900</v>
       </c>
       <c r="AL23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
         <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP23" t="n">
         <v>41</v>
@@ -3836,10 +3836,10 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="24">
@@ -3898,24 +3898,24 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -4033,30 +4033,30 @@
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
         <v>1.44</v>
@@ -4065,10 +4065,10 @@
         <v>2.63</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA25" t="n">
         <v>8.5</v>
@@ -4086,7 +4086,7 @@
         <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
         <v>9</v>
@@ -4098,13 +4098,13 @@
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM25" t="n">
         <v>13</v>
@@ -4116,7 +4116,7 @@
         <v>26</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -1141,22 +1141,22 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1195,7 +1195,7 @@
         <v>1.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB5" t="n">
         <v>8</v>
@@ -1216,7 +1216,7 @@
         <v>5.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1287,10 +1287,10 @@
         <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1302,10 +1302,10 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1639,7 +1639,7 @@
         <v>2.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA8" t="n">
         <v>4.75</v>
@@ -1749,10 +1749,10 @@
         <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1773,10 +1773,10 @@
         <v>1.32</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
         <v>1.5</v>
@@ -1788,7 +1788,7 @@
         <v>2.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
@@ -1937,7 +1937,7 @@
         <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
@@ -2029,69 +2029,69 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="I11" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD11" t="n">
         <v>37</v>
@@ -2100,40 +2100,40 @@
         <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="n">
         <v>5.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AO11" t="n">
         <v>37</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2170,16 +2170,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
         <v>2.72</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
         <v>1.88</v>
@@ -2200,10 +2200,10 @@
         <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2217,7 +2217,7 @@
         <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Y12" t="n">
         <v>1.98</v>
@@ -2226,13 +2226,13 @@
         <v>1.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
         <v>45</v>
@@ -2262,16 +2262,16 @@
         <v>6.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
         <v>40</v>
@@ -2452,108 +2452,108 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="K14" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L14" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AA14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB14" t="n">
         <v>5.4</v>
       </c>
-      <c r="AB14" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AK14" t="n">
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP14" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AQ14" t="n">
         <v>150</v>
@@ -2623,18 +2623,18 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2740,10 +2740,10 @@
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
@@ -2752,10 +2752,10 @@
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2778,28 +2778,28 @@
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA16" t="n">
         <v>5.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -2817,7 +2817,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="n">
         <v>501</v>
@@ -2882,19 +2882,19 @@
         <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
         <v>4.33</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2923,16 +2923,16 @@
         <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA17" t="n">
         <v>8</v>
@@ -2953,13 +2953,13 @@
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>67</v>
@@ -2968,13 +2968,13 @@
         <v>501</v>
       </c>
       <c r="AL17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
         <v>9.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>21</v>
@@ -2983,13 +2983,13 @@
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="18">
@@ -3318,7 +3318,7 @@
         <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
         <v>3.75</v>
@@ -3336,18 +3336,18 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
         <v>1.4</v>
@@ -3362,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB20" t="n">
         <v>11</v>
@@ -3374,31 +3374,31 @@
         <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>6.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN20" t="n">
         <v>11</v>
@@ -3407,7 +3407,7 @@
         <v>34</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>34</v>
@@ -3836,10 +3836,10 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24">
@@ -4186,10 +4186,10 @@
         <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J2" t="n">
         <v>6.5</v>
@@ -707,7 +707,7 @@
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -761,7 +761,7 @@
         <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>51</v>
@@ -773,13 +773,13 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>351</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>9</v>
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.2</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -867,13 +867,13 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.16</v>
@@ -900,16 +900,16 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -930,19 +930,19 @@
         <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -998,7 +998,7 @@
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>3.6</v>
@@ -1022,10 +1022,10 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U4" t="n">
         <v>4.5</v>
@@ -1034,22 +1034,22 @@
         <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1076,13 +1076,13 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN4" t="n">
         <v>11</v>
@@ -1159,10 +1159,10 @@
         <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
         <v>3.1</v>
@@ -1174,13 +1174,13 @@
         <v>5.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="U5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
         <v>1.67</v>
@@ -1246,10 +1246,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="6">
@@ -1308,10 +1308,10 @@
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
         <v>2.7</v>
@@ -1320,16 +1320,16 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
         <v>1.2</v>
       </c>
       <c r="U6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
         <v>1.62</v>
@@ -1377,7 +1377,7 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM6" t="n">
         <v>17</v>
@@ -1600,10 +1600,10 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1767,10 +1767,10 @@
         <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U9" t="n">
         <v>4.33</v>
@@ -1842,10 +1842,10 @@
         <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="10">
@@ -1880,28 +1880,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -1919,7 +1919,7 @@
         <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U10" t="n">
         <v>5</v>
@@ -1943,16 +1943,16 @@
         <v>7</v>
       </c>
       <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
         <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1964,7 +1964,7 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
@@ -1973,16 +1973,16 @@
         <v>1250</v>
       </c>
       <c r="AL10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="11">
@@ -2029,111 +2029,111 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="I11" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="AH11" t="n">
         <v>5.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ11" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2173,63 +2173,63 @@
         <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="J12" t="n">
         <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="L12" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.35</v>
+        <v>4.7</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>11.5</v>
@@ -2244,37 +2244,37 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AH12" t="n">
         <v>5.3</v>
       </c>
-      <c r="AH12" t="n">
-        <v>5.4</v>
-      </c>
       <c r="AI12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="n">
         <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AO12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP12" t="n">
         <v>28</v>
       </c>
-      <c r="AP12" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2311,22 +2311,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L13" t="n">
-        <v>4.6</v>
+        <v>4.15</v>
       </c>
       <c r="M13" t="n">
         <v>1.14</v>
@@ -2335,21 +2335,21 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="V13" t="n">
         <v>1.15</v>
@@ -2358,40 +2358,40 @@
         <v>1.57</v>
       </c>
       <c r="X13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Z13" t="n">
         <v>1.65</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG13" t="n">
         <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>120</v>
@@ -2400,22 +2400,22 @@
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AP13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2452,54 +2452,54 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="K14" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="Y14" t="n">
         <v>2.37</v>
@@ -2508,31 +2508,31 @@
         <v>1.52</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AC14" t="n">
         <v>8.75</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF14" t="n">
         <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AI14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
         <v>175</v>
@@ -2541,22 +2541,22 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AP14" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AQ14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2623,18 +2623,18 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2734,13 +2734,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J16" t="n">
         <v>2.25</v>
@@ -2749,7 +2749,7 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2758,10 +2758,10 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="n">
         <v>2.2</v>
@@ -2796,7 +2796,7 @@
         <v>6.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>11</v>
@@ -2811,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2935,19 +2935,19 @@
         <v>1.67</v>
       </c>
       <c r="AA17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -2968,28 +2968,28 @@
         <v>501</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="18">
@@ -3024,96 +3024,96 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
         <v>2.3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH18" t="n">
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK18" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
         <v>26</v>
@@ -3128,7 +3128,7 @@
         <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3174,7 +3174,7 @@
         <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3183,30 +3183,30 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W19" t="n">
         <v>1.44</v>
@@ -3224,7 +3224,7 @@
         <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>9.5</v>
@@ -3309,13 +3309,13 @@
         <v>2.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
         <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
@@ -3324,51 +3324,51 @@
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB20" t="n">
         <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
         <v>21</v>
@@ -3380,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH20" t="n">
         <v>6.5</v>
@@ -3447,28 +3447,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -3477,7 +3477,7 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>1.8</v>
@@ -3485,10 +3485,10 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
         <v>1.44</v>
@@ -3521,7 +3521,7 @@
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
@@ -3536,7 +3536,7 @@
         <v>301</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -3732,19 +3732,19 @@
         <v>1.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3759,10 +3759,10 @@
         <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3773,22 +3773,22 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA23" t="n">
         <v>5.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC23" t="n">
         <v>9.5</v>
@@ -3803,7 +3803,7 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH23" t="n">
         <v>6.5</v>
@@ -3818,13 +3818,13 @@
         <v>900</v>
       </c>
       <c r="AL23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM23" t="n">
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
         <v>51</v>
@@ -3836,10 +3836,10 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="24">
@@ -3889,7 +3889,7 @@
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3904,18 +3904,18 @@
         <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3924,16 +3924,16 @@
         <v>2.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC24" t="n">
         <v>8.5</v>
@@ -3942,10 +3942,10 @@
         <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -4065,16 +4065,16 @@
         <v>2.63</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
@@ -4089,13 +4089,13 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>51</v>
@@ -4113,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4162,22 +4162,22 @@
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
         <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4230,7 +4230,7 @@
         <v>29</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH26" t="n">
         <v>6.5</v>
@@ -4248,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -855,10 +855,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -1004,10 +1004,10 @@
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1022,10 +1022,10 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U4" t="n">
         <v>4.5</v>
@@ -1097,10 +1097,10 @@
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1198,13 +1198,13 @@
         <v>4.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
@@ -1243,7 +1243,7 @@
         <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
         <v>2.28</v>
@@ -1284,22 +1284,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1338,22 +1338,22 @@
         <v>2.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1365,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1377,10 +1377,10 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1433,28 +1433,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1475,10 +1475,10 @@
         <v>1.35</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1487,40 +1487,40 @@
         <v>2.63</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE7" t="n">
         <v>51</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK7" t="n">
         <v>501</v>
@@ -1529,13 +1529,13 @@
         <v>5.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1752,7 +1752,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1761,16 +1761,16 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U9" t="n">
         <v>4.33</v>
@@ -1842,10 +1842,10 @@
         <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="10">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1934,31 +1934,31 @@
         <v>2.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -1973,19 +1973,19 @@
         <v>1250</v>
       </c>
       <c r="AL10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2032,13 +2032,13 @@
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="I11" t="n">
         <v>2.95</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
         <v>1.7</v>
@@ -2050,33 +2050,33 @@
         <v>1.2</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="V11" t="n">
         <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Y11" t="n">
         <v>2.42</v>
@@ -2085,25 +2085,25 @@
         <v>1.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF11" t="n">
         <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
         <v>5.3</v>
@@ -2112,7 +2112,7 @@
         <v>22</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
@@ -2173,108 +2173,108 @@
         <v>3.2</v>
       </c>
       <c r="H12" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.62</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.57</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L12" t="n">
         <v>3.35</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="O12" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>45</v>
       </c>
       <c r="AE12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="AH12" t="n">
         <v>5.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
         <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AM12" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AN12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2311,37 +2311,37 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="M13" t="n">
         <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R13" t="n">
         <v>1.42</v>
@@ -2349,7 +2349,7 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="V13" t="n">
         <v>1.15</v>
@@ -2367,55 +2367,55 @@
         <v>1.65</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AB13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC13" t="n">
         <v>10.25</v>
       </c>
-      <c r="AC13" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
         <v>45</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="AM13" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>55</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>60</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2452,87 +2452,87 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="I14" t="n">
-        <v>7.6</v>
+        <v>8.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="K14" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.75</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AE14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
         <v>175</v>
@@ -2541,19 +2541,19 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AQ14" t="n">
         <v>120</v>
@@ -2734,48 +2734,48 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.57</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.67</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
         <v>1.5</v>
@@ -2784,10 +2784,10 @@
         <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA16" t="n">
         <v>5.5</v>
@@ -2796,22 +2796,22 @@
         <v>6.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -2823,10 +2823,10 @@
         <v>501</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>19</v>
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2903,10 +2903,10 @@
         <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>2.63</v>
@@ -2935,7 +2935,7 @@
         <v>1.67</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
@@ -2968,16 +2968,16 @@
         <v>501</v>
       </c>
       <c r="AL17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3027,7 +3027,7 @@
         <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
         <v>5.5</v>
@@ -3110,7 +3110,7 @@
         <v>67</v>
       </c>
       <c r="AK18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL18" t="n">
         <v>12</v>
@@ -3306,28 +3306,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.3</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -3336,18 +3336,18 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
         <v>1.44</v>
@@ -3365,10 +3365,10 @@
         <v>7.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>21</v>
@@ -3398,10 +3398,10 @@
         <v>9.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>34</v>
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
         <v>2.6</v>
@@ -3477,10 +3477,10 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3506,16 +3506,16 @@
         <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
         <v>8.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>29</v>
@@ -3542,7 +3542,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
@@ -3729,22 +3729,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
         <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3788,13 +3788,13 @@
         <v>5.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
         <v>9.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
@@ -3806,7 +3806,7 @@
         <v>6.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -3874,22 +3874,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3904,18 +3904,18 @@
         <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3924,16 +3924,16 @@
         <v>2.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
         <v>8.5</v>
@@ -3945,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
@@ -3963,13 +3963,13 @@
         <v>301</v>
       </c>
       <c r="AL24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -900,16 +900,16 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -924,7 +924,7 @@
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
@@ -936,7 +936,7 @@
         <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -1022,10 +1022,10 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U4" t="n">
         <v>4.5</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1198,13 +1198,13 @@
         <v>4.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
@@ -1243,7 +1243,7 @@
         <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>2.28</v>
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1347,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1368,10 +1368,10 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="n">
         <v>101</v>
@@ -1386,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
@@ -1433,13 +1433,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
         <v>6.5</v>
@@ -1451,10 +1451,10 @@
         <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1475,10 +1475,10 @@
         <v>1.35</v>
       </c>
       <c r="U7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1499,7 +1499,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
         <v>67</v>
@@ -1731,13 +1731,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>2.05</v>
@@ -1749,10 +1749,10 @@
         <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1785,10 +1785,10 @@
         <v>2.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
@@ -1809,13 +1809,13 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
         <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>101</v>
@@ -1830,13 +1830,13 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>101</v>
       </c>
       <c r="AP9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ9" t="n">
         <v>81</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1934,31 +1934,31 @@
         <v>2.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -1973,19 +1973,19 @@
         <v>1250</v>
       </c>
       <c r="AL10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2032,87 +2032,87 @@
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="L11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P11" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
         <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Z11" t="n">
         <v>1.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
         <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AI11" t="n">
         <v>22</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
@@ -2121,7 +2121,7 @@
         <v>5.7</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
@@ -2130,7 +2130,7 @@
         <v>40</v>
       </c>
       <c r="AP11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ11" t="n">
         <v>70</v>
@@ -2173,108 +2173,108 @@
         <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="n">
         <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="AH12" t="n">
         <v>5.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="n">
         <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AM12" t="n">
         <v>11.5</v>
       </c>
       <c r="AN12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>32</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2311,87 +2311,87 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
         <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L13" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="V13" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
         <v>10.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
         <v>45</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>110</v>
@@ -2400,22 +2400,22 @@
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AM13" t="n">
         <v>14.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP13" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AQ13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2458,7 +2458,7 @@
         <v>4.15</v>
       </c>
       <c r="I14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.87</v>
@@ -2467,7 +2467,7 @@
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2482,10 +2482,10 @@
         <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2499,13 +2499,13 @@
         <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Y14" t="n">
         <v>2.32</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AA14" t="n">
         <v>5.3</v>
@@ -2544,7 +2544,7 @@
         <v>17.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
         <v>28</v>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
         <v>2.38</v>
@@ -2631,10 +2631,10 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2649,7 +2649,7 @@
         <v>1.83</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
         <v>8</v>
@@ -2664,16 +2664,16 @@
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2682,7 +2682,7 @@
         <v>301</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -2784,10 +2784,10 @@
         <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA16" t="n">
         <v>5.5</v>
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
         <v>7.5</v>
@@ -2897,16 +2897,16 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q17" t="n">
         <v>2.63</v>
@@ -2986,10 +2986,10 @@
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="18">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
@@ -3033,7 +3033,7 @@
         <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3110,7 +3110,7 @@
         <v>67</v>
       </c>
       <c r="AK18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL18" t="n">
         <v>12</v>
@@ -3306,13 +3306,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
         <v>2.88</v>
@@ -3471,10 +3471,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -3883,7 +3883,7 @@
         <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
@@ -3898,24 +3898,24 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3954,16 +3954,16 @@
         <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>51</v>
       </c>
       <c r="AK24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
@@ -4174,10 +4174,10 @@
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -867,13 +867,13 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T3" t="n">
         <v>1.16</v>
@@ -885,22 +885,22 @@
         <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -915,16 +915,16 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
@@ -936,7 +936,7 @@
         <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -986,22 +986,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1010,28 +1010,28 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
         <v>1.53</v>
@@ -1040,13 +1040,13 @@
         <v>2.38</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB4" t="n">
         <v>12</v>
@@ -1058,25 +1058,25 @@
         <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL4" t="n">
         <v>7.5</v>
@@ -1097,10 +1097,10 @@
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -1141,22 +1141,22 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.67</v>
@@ -1213,10 +1213,10 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1249,7 +1249,7 @@
         <v>2.28</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="6">
@@ -1290,10 +1290,10 @@
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1308,22 +1308,22 @@
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U6" t="n">
         <v>6</v>
@@ -1347,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1368,7 +1368,7 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>101</v>
@@ -1433,13 +1433,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
         <v>6.5</v>
@@ -1487,10 +1487,10 @@
         <v>2.63</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1499,7 +1499,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
         <v>67</v>
@@ -1520,7 +1520,7 @@
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
         <v>501</v>
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -1761,10 +1761,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>3.5</v>
@@ -1791,7 +1791,7 @@
         <v>1.44</v>
       </c>
       <c r="AA9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB9" t="n">
         <v>5.5</v>
@@ -1800,7 +1800,7 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -1812,19 +1812,19 @@
         <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -1833,7 +1833,7 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP9" t="n">
         <v>81</v>
@@ -1883,13 +1883,13 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -1982,10 +1982,10 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2029,87 +2029,87 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="M11" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="N11" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="V11" t="n">
         <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
         <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="n">
         <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AI11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="n">
         <v>175</v>
@@ -2121,16 +2121,16 @@
         <v>5.7</v>
       </c>
       <c r="AM11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AN11" t="n">
         <v>12.5</v>
       </c>
-      <c r="AN11" t="n">
-        <v>12</v>
-      </c>
       <c r="AO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP11" t="n">
         <v>40</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>37</v>
       </c>
       <c r="AQ11" t="n">
         <v>70</v>
@@ -2311,22 +2311,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
         <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>1.87</v>
       </c>
       <c r="L13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2335,21 +2335,21 @@
         <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
@@ -2358,31 +2358,31 @@
         <v>1.55</v>
       </c>
       <c r="X13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Z13" t="n">
         <v>1.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB13" t="n">
         <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
         <v>5.1</v>
@@ -2394,25 +2394,25 @@
         <v>16.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP13" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AQ13" t="n">
         <v>50</v>
@@ -2452,19 +2452,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="I14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L14" t="n">
         <v>7.7</v>
@@ -2473,63 +2473,63 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X14" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AA14" t="n">
         <v>5.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC14" t="n">
         <v>8.75</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI14" t="n">
         <v>26</v>
@@ -2541,13 +2541,13 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AM14" t="n">
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
         <v>250</v>
@@ -2670,10 +2670,10 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2682,7 +2682,7 @@
         <v>301</v>
       </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -2734,28 +2734,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2778,37 +2778,37 @@
         <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA16" t="n">
         <v>5.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
@@ -2841,10 +2841,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="17">
@@ -2897,30 +2897,30 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
         <v>1.57</v>
@@ -2986,10 +2986,10 @@
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="18">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
@@ -3045,7 +3045,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3089,7 +3089,7 @@
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3101,10 +3101,10 @@
         <v>8.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>67</v>
@@ -3116,16 +3116,16 @@
         <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP18" t="n">
         <v>51</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>41</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3321,7 +3321,7 @@
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3336,7 +3336,7 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>1.8</v>
@@ -3344,10 +3344,10 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
         <v>1.44</v>
@@ -3447,16 +3447,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -3509,7 +3509,7 @@
         <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>17</v>
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
@@ -3759,10 +3759,10 @@
         <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3773,10 +3773,10 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y23" t="n">
         <v>2.25</v>
@@ -3791,22 +3791,22 @@
         <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
       </c>
       <c r="AG23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH23" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -3818,16 +3818,16 @@
         <v>900</v>
       </c>
       <c r="AL23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP23" t="n">
         <v>41</v>
@@ -3836,10 +3836,10 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="24">
@@ -3874,16 +3874,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
@@ -3904,10 +3904,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
         <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>7</v>
@@ -4039,16 +4039,16 @@
         <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -704,10 +704,10 @@
         <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -746,10 +746,10 @@
         <v>3.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -770,7 +770,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -779,16 +779,16 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN2" t="n">
         <v>9</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -885,22 +885,22 @@
         <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -915,13 +915,13 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>101</v>
@@ -930,13 +930,13 @@
         <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM3" t="n">
         <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -1022,10 +1022,10 @@
         <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U4" t="n">
         <v>4.33</v>
@@ -1302,16 +1302,16 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
         <v>2.88</v>
@@ -1451,10 +1451,10 @@
         <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1496,13 +1496,13 @@
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="n">
         <v>51</v>
@@ -1514,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
@@ -1532,7 +1532,7 @@
         <v>6.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
@@ -1585,25 +1585,25 @@
         <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1612,10 +1612,10 @@
         <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
         <v>4.4</v>
@@ -1630,10 +1630,10 @@
         <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y8" t="n">
         <v>2.5</v>
@@ -1663,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>23</v>
@@ -1675,13 +1675,13 @@
         <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>67</v>
@@ -1693,10 +1693,10 @@
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -1749,10 +1749,10 @@
         <v>9</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1898,10 +1898,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2029,45 +2029,45 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="L11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="M11" t="n">
         <v>1.21</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="V11" t="n">
         <v>1.09</v>
@@ -2079,37 +2079,37 @@
         <v>1.93</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
         <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ11" t="n">
         <v>175</v>
@@ -2118,10 +2118,10 @@
         <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AM11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
         <v>12.5</v>
@@ -2133,7 +2133,7 @@
         <v>40</v>
       </c>
       <c r="AQ11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2170,48 +2170,48 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="I12" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W12" t="n">
         <v>1.65</v>
@@ -2226,10 +2226,10 @@
         <v>1.57</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>12.5</v>
@@ -2244,13 +2244,13 @@
         <v>65</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AH12" t="n">
         <v>5.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>150</v>
@@ -2259,13 +2259,13 @@
         <v>900</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AM12" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO12" t="n">
         <v>32</v>
@@ -2734,16 +2734,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -2790,16 +2790,16 @@
         <v>1.57</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2903,10 +2903,10 @@
         <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
         <v>2.75</v>
@@ -2923,46 +2923,46 @@
         <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
         <v>13</v>
       </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
       <c r="AD17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="n">
         <v>34</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>29</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="n">
         <v>501</v>
@@ -2971,13 +2971,13 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -2986,10 +2986,10 @@
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="18">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3045,7 +3045,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3083,7 +3083,7 @@
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.5</v>
@@ -3113,7 +3113,7 @@
         <v>501</v>
       </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM18" t="n">
         <v>29</v>
@@ -3165,19 +3165,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>3.5</v>
@@ -3215,19 +3215,19 @@
         <v>2.63</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
         <v>23</v>
@@ -3236,10 +3236,10 @@
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
@@ -3251,10 +3251,10 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM19" t="n">
         <v>13</v>
@@ -3447,81 +3447,81 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="n">
         <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
@@ -3533,10 +3533,10 @@
         <v>51</v>
       </c>
       <c r="AK21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -3606,30 +3606,30 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W22" t="n">
         <v>1.33</v>
@@ -3644,10 +3644,10 @@
         <v>2.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
@@ -4015,28 +4015,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4045,24 +4045,24 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y25" t="n">
         <v>1.83</v>
@@ -4074,22 +4074,22 @@
         <v>8</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
         <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
@@ -4101,10 +4101,10 @@
         <v>51</v>
       </c>
       <c r="AK25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM25" t="n">
         <v>13</v>
@@ -4113,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4156,28 +4156,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4215,16 +4215,16 @@
         <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>29</v>
@@ -4233,7 +4233,7 @@
         <v>8.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -4245,7 +4245,7 @@
         <v>301</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM26" t="n">
         <v>17</v>
@@ -4257,7 +4257,7 @@
         <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
         <v>6.5</v>
@@ -746,19 +746,19 @@
         <v>3.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
         <v>81</v>
@@ -782,13 +782,13 @@
         <v>67</v>
       </c>
       <c r="AK2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3.3</v>
@@ -849,40 +849,40 @@
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.11</v>
       </c>
       <c r="W3" t="n">
         <v>1.67</v>
@@ -891,16 +891,16 @@
         <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA3" t="n">
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -924,13 +924,13 @@
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM3" t="n">
         <v>15</v>
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1135,28 +1135,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.67</v>
@@ -1171,7 +1171,7 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.15</v>
@@ -1195,13 +1195,13 @@
         <v>1.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="n">
         <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>19</v>
@@ -1213,7 +1213,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1231,13 +1231,13 @@
         <v>7.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>
@@ -1246,10 +1246,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="6">
@@ -1284,22 +1284,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1347,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1368,7 +1368,7 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>101</v>
@@ -1380,10 +1380,10 @@
         <v>8</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>51</v>
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
@@ -1532,7 +1532,7 @@
         <v>6.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
@@ -1642,10 +1642,10 @@
         <v>1.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
         <v>9.5</v>
@@ -1681,10 +1681,10 @@
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP8" t="n">
         <v>51</v>
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1785,13 +1785,13 @@
         <v>2.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
         <v>5.5</v>
@@ -1800,7 +1800,7 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -1809,34 +1809,34 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ9" t="n">
         <v>81</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
@@ -1943,13 +1943,13 @@
         <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -1982,10 +1982,10 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2311,19 +2311,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
         <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L13" t="n">
         <v>3.85</v>
@@ -2355,28 +2355,28 @@
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X13" t="n">
         <v>2.32</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Z13" t="n">
         <v>1.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>9.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2400,10 +2400,10 @@
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN13" t="n">
         <v>11.75</v>
@@ -2452,87 +2452,87 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="I14" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K14" t="n">
         <v>2.22</v>
       </c>
       <c r="L14" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
         <v>1.42</v>
       </c>
       <c r="X14" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
         <v>175</v>
@@ -2541,19 +2541,19 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AP14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ14" t="n">
         <v>120</v>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2.38</v>
@@ -2631,10 +2631,10 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2682,7 +2682,7 @@
         <v>301</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -2734,16 +2734,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -2790,16 +2790,16 @@
         <v>1.57</v>
       </c>
       <c r="AA16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -2841,10 +2841,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="17">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2903,10 +2903,10 @@
         <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>2.75</v>
@@ -2944,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
         <v>34</v>
@@ -2953,13 +2953,13 @@
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>81</v>
@@ -2971,13 +2971,13 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -2986,10 +2986,10 @@
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="18">
@@ -3024,13 +3024,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H18" t="n">
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>2.2</v>
@@ -3039,7 +3039,7 @@
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3074,13 +3074,13 @@
         <v>2.63</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB18" t="n">
         <v>6.5</v>
@@ -3107,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="n">
         <v>501</v>
@@ -3165,13 +3165,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -3180,7 +3180,7 @@
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3203,10 +3203,10 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
         <v>1.44</v>
@@ -3221,7 +3221,7 @@
         <v>1.83</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
@@ -3230,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3239,7 +3239,7 @@
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
@@ -3251,7 +3251,7 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL19" t="n">
         <v>8</v>
@@ -3260,7 +3260,7 @@
         <v>13</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>29</v>
@@ -3312,7 +3312,7 @@
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="n">
         <v>2.88</v>
@@ -3336,18 +3336,18 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
         <v>1.44</v>
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
         <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -4180,10 +4180,10 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>
@@ -4215,16 +4215,16 @@
         <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>29</v>
@@ -4233,7 +4233,7 @@
         <v>8.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -4245,7 +4245,7 @@
         <v>301</v>
       </c>
       <c r="AL26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM26" t="n">
         <v>17</v>
@@ -4257,7 +4257,7 @@
         <v>41</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J2" t="n">
         <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -716,10 +716,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -734,10 +734,10 @@
         <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
         <v>1.33</v>
@@ -752,13 +752,13 @@
         <v>1.91</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
         <v>81</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN2" t="n">
         <v>9</v>
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U3" t="n">
         <v>6</v>
@@ -900,16 +900,16 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="n">
         <v>10</v>
       </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
       <c r="AD3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE3" t="n">
         <v>23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1135,22 +1135,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
@@ -1159,28 +1159,28 @@
         <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
         <v>1.67</v>
@@ -1198,16 +1198,16 @@
         <v>5</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1216,7 +1216,7 @@
         <v>5.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1228,16 +1228,16 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
         <v>17</v>
       </c>
-      <c r="AN5" t="n">
-        <v>15</v>
-      </c>
       <c r="AO5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>
@@ -1246,10 +1246,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6">
@@ -1284,19 +1284,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
@@ -1314,16 +1314,16 @@
         <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="U6" t="n">
         <v>6</v>
@@ -1380,10 +1380,10 @@
         <v>8</v>
       </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>51</v>
@@ -1588,7 +1588,7 @@
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.6</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
@@ -1946,13 +1946,13 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1976,13 +1976,13 @@
         <v>6.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN10" t="n">
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
@@ -2649,7 +2649,7 @@
         <v>1.83</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB15" t="n">
         <v>8</v>
@@ -2841,10 +2841,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="17">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2935,22 +2935,22 @@
         <v>1.62</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
         <v>6.5</v>
@@ -2959,7 +2959,7 @@
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>81</v>
@@ -2968,19 +2968,19 @@
         <v>501</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3024,54 +3024,54 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.2</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y18" t="n">
         <v>2.2</v>
@@ -3080,31 +3080,31 @@
         <v>1.62</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC18" t="n">
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>81</v>
@@ -3113,16 +3113,16 @@
         <v>501</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP18" t="n">
         <v>51</v>
@@ -3165,34 +3165,34 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
@@ -3251,7 +3251,7 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL19" t="n">
         <v>8</v>
@@ -3263,10 +3263,10 @@
         <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
         <v>34</v>
@@ -3330,16 +3330,16 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3447,16 +3447,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
@@ -3465,22 +3465,22 @@
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3506,13 +3506,13 @@
         <v>7.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC21" t="n">
         <v>8.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -3521,10 +3521,10 @@
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-12.xlsx
@@ -704,16 +704,16 @@
         <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
@@ -740,19 +740,19 @@
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -761,7 +761,7 @@
         <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="n">
         <v>51</v>
@@ -770,7 +770,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -782,10 +782,10 @@
         <v>67</v>
       </c>
       <c r="AK2" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM2" t="n">
         <v>7.5</v>
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
@@ -873,10 +873,10 @@
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="U3" t="n">
         <v>6</v>
@@ -885,10 +885,10 @@
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3" t="n">
         <v>2.25</v>
@@ -915,7 +915,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -930,13 +930,13 @@
         <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN3" t="n">
         <v>15</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1016,16 +1016,16 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U4" t="n">
         <v>4.33</v>
@@ -1034,10 +1034,10 @@
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y4" t="n">
         <v>1.95</v>
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1076,13 +1076,13 @@
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL4" t="n">
         <v>7.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN4" t="n">
         <v>11</v>
@@ -1091,7 +1091,7 @@
         <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1153,10 +1153,10 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1195,7 +1195,7 @@
         <v>1.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB5" t="n">
         <v>7.5</v>
@@ -1228,7 +1228,7 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1240,13 +1240,13 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="AS5" t="n">
         <v>1.68</v>
@@ -1284,34 +1284,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
         <v>2.7</v>
@@ -1320,22 +1320,22 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y6" t="n">
         <v>2.38</v>
@@ -1347,16 +1347,16 @@
         <v>5</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1368,37 +1368,37 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="n">
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1457,34 +1457,34 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y7" t="n">
         <v>2.2</v>
@@ -1493,16 +1493,16 @@
         <v>1.62</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE7" t="n">
         <v>51</v>
@@ -1532,7 +1532,7 @@
         <v>6.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
@@ -1544,10 +1544,10 @@
         <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="8">
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
@@ -1600,34 +1600,34 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.14</v>
       </c>
       <c r="W8" t="n">
         <v>1.62</v>
@@ -1642,13 +1642,13 @@
         <v>1.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
@@ -1660,7 +1660,7 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
@@ -1681,10 +1681,10 @@
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP8" t="n">
         <v>51</v>
@@ -1693,10 +1693,10 @@
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="9">
@@ -1731,40 +1731,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>3.5</v>
@@ -1785,22 +1785,22 @@
         <v>2.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB9" t="n">
         <v>5</v>
       </c>
-      <c r="AB9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -1809,16 +1809,16 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -1830,19 +1830,19 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>101</v>
       </c>
-      <c r="AP9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>81</v>
-      </c>
       <c r="AR9" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AS9" t="n">
         <v>2.1</v>
@@ -1880,52 +1880,52 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
         <v>1.57</v>
@@ -1943,28 +1943,28 @@
         <v>7</v>
       </c>
       <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
         <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
@@ -1976,13 +1976,13 @@
         <v>6.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
@@ -2617,16 +2617,16 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
         <v>1.83</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
         <v>8</v>
@@ -2664,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
@@ -2682,7 +2682,7 @@
         <v>301</v>
       </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -2841,10 +2841,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="17">
@@ -2879,34 +2879,34 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
         <v>2.75</v>
@@ -2929,10 +2929,10 @@
         <v>2.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA17" t="n">
         <v>7.5</v>
@@ -2953,7 +2953,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
@@ -2977,19 +2977,19 @@
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="18">
@@ -3033,10 +3033,10 @@
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
@@ -3045,7 +3045,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -3054,18 +3054,18 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
@@ -3104,7 +3104,7 @@
         <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>81</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3195,10 +3195,10 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3224,7 +3224,7 @@
         <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>10</v>
@@ -3257,7 +3257,7 @@
         <v>8</v>
       </c>
       <c r="AM19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN19" t="n">
         <v>10</v>
@@ -3336,18 +3336,18 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
         <v>1.44</v>
@@ -3447,102 +3447,102 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z21" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z21" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
         <v>8.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
         <v>51</v>
       </c>
       <c r="AK21" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
